--- a/data/trans_dic/P68-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P68-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2514993393246711</v>
+        <v>0.244242969516726</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2539599834729682</v>
+        <v>0.2570359824571246</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3166823012185238</v>
+        <v>0.3140099188983427</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1619391595640003</v>
+        <v>0.1566270935960919</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1830199761650292</v>
+        <v>0.182791017349746</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2081489276053792</v>
+        <v>0.2056074529071087</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1701840800235652</v>
+        <v>0.1733116777865262</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2048843770205903</v>
+        <v>0.1989091202945115</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2446660318608286</v>
+        <v>0.2499291651952818</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2551988238142063</v>
+        <v>0.2556350100679468</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.295833400606976</v>
+        <v>0.2883550091899701</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1893002298596187</v>
+        <v>0.1902080235397232</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3516123613670453</v>
+        <v>0.3430446883050551</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3929841942722801</v>
+        <v>0.3997350701925949</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4944239547428727</v>
+        <v>0.4890077864138241</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2951791940725838</v>
+        <v>0.2892150147463447</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3198795211760305</v>
+        <v>0.3179520587740106</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3651344524757876</v>
+        <v>0.361770481602344</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3741989030500378</v>
+        <v>0.3831864247007164</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3600868862618347</v>
+        <v>0.369070191348864</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3230962597615501</v>
+        <v>0.3271721476059559</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3610684312395238</v>
+        <v>0.3626534671444872</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4323818008746882</v>
+        <v>0.4281994008718177</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2957674417237804</v>
+        <v>0.2965287994015897</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.2487436695965553</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2156804950752221</v>
+        <v>0.215680495075222</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2054179622256515</v>
@@ -833,7 +833,7 @@
         <v>0.2251418441908857</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.226060260008003</v>
+        <v>0.2260602600080031</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2318111669250696</v>
+        <v>0.2312966753746847</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.216098603880949</v>
+        <v>0.2187805937686036</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2203739886760609</v>
+        <v>0.2205831052923898</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1922959408023081</v>
+        <v>0.1900067151522917</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1736859415967928</v>
+        <v>0.1731712786548995</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1968682214293244</v>
+        <v>0.1946767645348063</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1612903507190274</v>
+        <v>0.1630137149129978</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2185837716903433</v>
+        <v>0.2193830247479699</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2177051344330361</v>
+        <v>0.2181035728055456</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2180121479743841</v>
+        <v>0.2179537799754057</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2072145839644575</v>
+        <v>0.2032048770159779</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2094663003451351</v>
+        <v>0.2083152352608406</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2852120940893388</v>
+        <v>0.2836823358378058</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2782611488914059</v>
+        <v>0.2776922439081187</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2800510667992622</v>
+        <v>0.279096432290622</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2421117259970745</v>
+        <v>0.2441177202428316</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2395096418691086</v>
+        <v>0.241153855697073</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2688368843199187</v>
+        <v>0.2702848814363468</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2247645276712038</v>
+        <v>0.2262705284706403</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2658342228731565</v>
+        <v>0.2693120847451282</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2619338093315018</v>
+        <v>0.2596529937853054</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2643717056087164</v>
+        <v>0.262077976023718</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2499911769329681</v>
+        <v>0.2490288684716963</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2437324938578407</v>
+        <v>0.2445022664821427</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1817248140187498</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1613687372820118</v>
+        <v>0.1613687372820117</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2196025702670274</v>
@@ -969,7 +969,7 @@
         <v>0.2097532682249634</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1847155867795972</v>
+        <v>0.1847155867795971</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1462232138241202</v>
+        <v>0.1474673550206637</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1069146110668977</v>
+        <v>0.107837707506994</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.140270315038543</v>
+        <v>0.1430381616746304</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1233091493194171</v>
+        <v>0.1278963148336136</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1726921110660469</v>
+        <v>0.1742041152987518</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1433618647885482</v>
+        <v>0.1418826067391849</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1967272754614852</v>
+        <v>0.193276749589211</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1755354010843231</v>
+        <v>0.1757980034945525</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1708157223642853</v>
+        <v>0.1709987753812325</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1378670551643039</v>
+        <v>0.1344429135729687</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1761213814160024</v>
+        <v>0.1781605660909479</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1584142759372588</v>
+        <v>0.1591019442574096</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.224719763418466</v>
+        <v>0.2293397231732122</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.194225900871272</v>
+        <v>0.1963251356453757</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2252360058326653</v>
+        <v>0.2341939916640692</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2025709206404021</v>
+        <v>0.2105037846201304</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2706694346000487</v>
+        <v>0.2721443420666905</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2610301713094917</v>
+        <v>0.2541315560407254</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2959111579298606</v>
+        <v>0.2914428527309213</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2431747280409514</v>
+        <v>0.2418099035193313</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2278994332179951</v>
+        <v>0.2297177181384294</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2044843466495251</v>
+        <v>0.2027297743009588</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2465382955672533</v>
+        <v>0.2420332057435821</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2135220712866262</v>
+        <v>0.2117418263927731</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.2114331582127648</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2318605894462382</v>
+        <v>0.2318605894462381</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2379725512147826</v>
@@ -1105,7 +1105,7 @@
         <v>0.2322269260403444</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2153035078159916</v>
+        <v>0.2153035078159917</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2297025264149159</v>
+        <v>0.2298580422979298</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2125606587221411</v>
+        <v>0.2092948354945453</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2247123049380682</v>
+        <v>0.223458948658387</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1808035118613847</v>
+        <v>0.1814233608598805</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1915862714102577</v>
+        <v>0.1912913492706456</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2031007552715877</v>
+        <v>0.2012812132174313</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1869404140657906</v>
+        <v>0.1852255248490383</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2131132527629873</v>
+        <v>0.2136481439835942</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2238944680687245</v>
+        <v>0.2227381927725881</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2146584812761506</v>
+        <v>0.2152335934369809</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2150406327914103</v>
+        <v>0.2128792821020477</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2004200148610387</v>
+        <v>0.2001966756282892</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2689433153474647</v>
+        <v>0.2708550109995698</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2600740848679911</v>
+        <v>0.2543663769486983</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.271902441193217</v>
+        <v>0.2713991720019668</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2248847552075684</v>
+        <v>0.2239101224649161</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2443945793325639</v>
+        <v>0.2435125915397502</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.258227780554905</v>
+        <v>0.2570564338963032</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2391262207844016</v>
+        <v>0.2406710612749835</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2517362371289528</v>
+        <v>0.2504108309143782</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2542072825524936</v>
+        <v>0.2548757393765992</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.252414453341604</v>
+        <v>0.2495135286917654</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2498997973434398</v>
+        <v>0.2482251298799561</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2289718724623149</v>
+        <v>0.2290774432665022</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>93648</v>
+        <v>90946</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>46479</v>
+        <v>47042</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>43749</v>
+        <v>43380</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>26094</v>
+        <v>25238</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>27319</v>
+        <v>27285</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>28545</v>
+        <v>28197</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11587</v>
+        <v>11800</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>17343</v>
+        <v>16838</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>127625</v>
+        <v>130370</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>81704</v>
+        <v>81844</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>61010</v>
+        <v>59467</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>46527</v>
+        <v>46750</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>130926</v>
+        <v>127736</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>71923</v>
+        <v>73159</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>68304</v>
+        <v>67555</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>47564</v>
+        <v>46603</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>47748</v>
+        <v>47460</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>50074</v>
+        <v>49613</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>25477</v>
+        <v>26088</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>30481</v>
+        <v>31242</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>168536</v>
+        <v>170662</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>115599</v>
+        <v>116106</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>89170</v>
+        <v>88308</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>72695</v>
+        <v>72883</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>257848</v>
+        <v>257276</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>197192</v>
+        <v>199639</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>202383</v>
+        <v>202575</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>238622</v>
+        <v>235781</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>100254</v>
+        <v>99957</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>112780</v>
+        <v>111525</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>104766</v>
+        <v>105885</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>199744</v>
+        <v>200474</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>367820</v>
+        <v>368494</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>323831</v>
+        <v>323744</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>324893</v>
+        <v>318607</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>451341</v>
+        <v>448860</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>317247</v>
+        <v>315545</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>253916</v>
+        <v>253396</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>257188</v>
+        <v>256311</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>300438</v>
+        <v>302928</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>138249</v>
+        <v>139198</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>154009</v>
+        <v>154839</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>145995</v>
+        <v>146973</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>242922</v>
+        <v>246100</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>442546</v>
+        <v>438693</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>392693</v>
+        <v>389286</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>391963</v>
+        <v>390454</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>525175</v>
+        <v>526833</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>59033</v>
+        <v>59535</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>33812</v>
+        <v>34104</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>48315</v>
+        <v>49269</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>58755</v>
+        <v>60941</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>50315</v>
+        <v>50756</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>33675</v>
+        <v>33328</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>60076</v>
+        <v>59022</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>83488</v>
+        <v>83613</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>118730</v>
+        <v>118857</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>75986</v>
+        <v>74099</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>114448</v>
+        <v>115773</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>150827</v>
+        <v>151482</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>90723</v>
+        <v>92588</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>61425</v>
+        <v>62089</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>77581</v>
+        <v>80667</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>96523</v>
+        <v>100303</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>78862</v>
+        <v>79291</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>61315</v>
+        <v>59695</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>90365</v>
+        <v>89000</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>115658</v>
+        <v>115009</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>158407</v>
+        <v>159671</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>112702</v>
+        <v>111735</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>160206</v>
+        <v>157279</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>203296</v>
+        <v>201601</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>433770</v>
+        <v>434063</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>300090</v>
+        <v>295479</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>314811</v>
+        <v>313055</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>339645</v>
+        <v>340810</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>195005</v>
+        <v>194705</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>191912</v>
+        <v>190192</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>191241</v>
+        <v>189487</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>314145</v>
+        <v>314934</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>650691</v>
+        <v>647331</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>505884</v>
+        <v>507240</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>521250</v>
+        <v>516011</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>671930</v>
+        <v>671181</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>507872</v>
+        <v>511482</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>367168</v>
+        <v>359110</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>380923</v>
+        <v>380217</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>422453</v>
+        <v>420622</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>248755</v>
+        <v>247858</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>244002</v>
+        <v>242895</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>244628</v>
+        <v>246208</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>371079</v>
+        <v>369125</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>738787</v>
+        <v>740730</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>594863</v>
+        <v>588027</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>605747</v>
+        <v>601688</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>767653</v>
+        <v>768007</v>
       </c>
     </row>
     <row r="20">
